--- a/SOMUCKE/TRICHDODIACHINH2023.xlsx
+++ b/SOMUCKE/TRICHDODIACHINH2023.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\SOMUCKE\SOMUCKE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="758" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" tabRatio="758"/>
   </bookViews>
   <sheets>
     <sheet name="Khe Sanh" sheetId="3" r:id="rId1"/>
@@ -36,7 +41,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Khe Sanh'!$A$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="904">
   <si>
     <t>Mã hồ sơ</t>
   </si>
@@ -2763,12 +2768,15 @@
   </si>
   <si>
     <t>697/23</t>
+  </si>
+  <si>
+    <t>HTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -3242,7 +3250,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3251,10 +3259,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J192"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A193" sqref="A193"/>
+    <sheetView tabSelected="1" topLeftCell="A186" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -7664,6 +7672,23 @@
       </c>
       <c r="I192" s="8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="9">
+        <v>192</v>
+      </c>
+      <c r="C193" s="8">
+        <v>68</v>
+      </c>
+      <c r="D193" s="8">
+        <v>364</v>
+      </c>
+      <c r="E193" s="8">
+        <v>2976.8</v>
+      </c>
+      <c r="I193" s="8" t="s">
+        <v>903</v>
       </c>
     </row>
   </sheetData>
@@ -26637,7 +26662,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
